--- a/static/media/cap_nhat_nnt.xlsx
+++ b/static/media/cap_nhat_nnt.xlsx
@@ -59,13 +59,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,23 +378,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -398,6 +406,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
